--- a/Oscilo_list.xlsx
+++ b/Oscilo_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1534694\Documents\CIGRE\WG B5_55\Subgrupo - Oscilo\___OSCILOS_JÁ_EDITADAS_2022_06_21___\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1534694\Documents\GitHub\oscilografia_TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE771F8-D97F-4A2B-92BF-293F9F0EB524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94ED7F-ADE9-4788-A299-37826F649B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E59DAF9-8DBB-408C-A814-55F38A18EDAE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="94">
   <si>
     <t>Nome Oscilo</t>
   </si>
@@ -302,6 +302,24 @@
   </si>
   <si>
     <t>Falha comutação em HVDC próximo</t>
+  </si>
+  <si>
+    <t>2016_08_23_ LT500kV A-B</t>
+  </si>
+  <si>
+    <t>2016_09_28 LT500kV A-B</t>
+  </si>
+  <si>
+    <t>2019_03_28 LT500kV A-B</t>
+  </si>
+  <si>
+    <t>2019_04_12 LT500KV A-B</t>
+  </si>
+  <si>
+    <t>2020_04_15 LT500KV A-B</t>
+  </si>
+  <si>
+    <t>2020_09_29 LT500KV A-B</t>
   </si>
 </sst>
 </file>
@@ -690,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C89CCF-5410-44FB-A089-79848F9D5500}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,33 +770,35 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>525</v>
+      </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
@@ -786,33 +806,35 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2">
+        <v>525</v>
+      </c>
       <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
@@ -820,33 +842,35 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>525</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
@@ -854,7 +878,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -878,9 +902,11 @@
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
+        <v>500</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
@@ -888,33 +914,35 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
+        <v>525</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
@@ -922,34 +950,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>17</v>
@@ -958,35 +986,33 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2">
-        <v>525</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
@@ -994,35 +1020,33 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2">
-        <v>525</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1030,35 +1054,33 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2">
-        <v>525</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1066,13 +1088,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -1084,86 +1106,80 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2">
-        <v>525</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="2">
-        <v>525</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
@@ -1172,34 +1188,34 @@
       <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="2">
@@ -1208,11 +1224,11 @@
       <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1239,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="J15" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>17</v>
@@ -1248,7 +1264,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -1275,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>17</v>
@@ -1284,7 +1300,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -1311,16 +1327,16 @@
         <v>24</v>
       </c>
       <c r="J17" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -1347,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
@@ -1356,7 +1372,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -1371,28 +1387,30 @@
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1419,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="J20" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>17</v>
@@ -1428,34 +1446,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>17</v>
@@ -1464,7 +1482,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1491,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="J22" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>17</v>
@@ -1500,7 +1518,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1527,7 +1545,7 @@
         <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>17</v>
@@ -1536,7 +1554,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
@@ -1551,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
@@ -1563,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="J24" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>17</v>
@@ -1572,7 +1590,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
@@ -1608,7 +1626,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1635,7 +1653,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>17</v>
@@ -1644,7 +1662,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
@@ -1671,7 +1689,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>17</v>
@@ -1680,7 +1698,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1716,7 +1734,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
@@ -1743,7 +1761,7 @@
         <v>24</v>
       </c>
       <c r="J29" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>17</v>
@@ -1752,7 +1770,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
@@ -1761,16 +1779,16 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
@@ -1779,16 +1797,16 @@
         <v>24</v>
       </c>
       <c r="J30" s="2">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
@@ -1797,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
@@ -1806,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
@@ -1815,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="J31" s="2">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
@@ -1833,7 +1851,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
@@ -1842,7 +1860,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
@@ -1851,16 +1869,16 @@
         <v>24</v>
       </c>
       <c r="J32" s="2">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1869,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
@@ -1878,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -1887,16 +1905,16 @@
         <v>24</v>
       </c>
       <c r="J33" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1905,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -1914,7 +1932,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
@@ -1923,16 +1941,16 @@
         <v>24</v>
       </c>
       <c r="J34" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
@@ -1941,7 +1959,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -1950,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
@@ -1959,16 +1977,16 @@
         <v>24</v>
       </c>
       <c r="J35" s="2">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
@@ -1989,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>24</v>
@@ -2004,7 +2022,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -2025,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>24</v>
@@ -2040,7 +2058,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -2061,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>24</v>
@@ -2076,7 +2094,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -2097,7 +2115,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>24</v>
@@ -2112,7 +2130,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -2133,7 +2151,7 @@
         <v>14</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>24</v>
@@ -2148,7 +2166,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -2169,7 +2187,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>24</v>
@@ -2184,7 +2202,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
@@ -2220,7 +2238,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -2256,7 +2274,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -2277,7 +2295,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>24</v>
@@ -2292,7 +2310,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -2313,7 +2331,7 @@
         <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>24</v>
@@ -2328,7 +2346,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -2349,7 +2367,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>24</v>
@@ -2364,7 +2382,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -2385,7 +2403,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>24</v>
@@ -2400,7 +2418,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -2436,7 +2454,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
@@ -2472,7 +2490,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
@@ -2493,7 +2511,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>24</v>
@@ -2508,7 +2526,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>13</v>
@@ -2529,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
@@ -2544,7 +2562,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -2565,7 +2583,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>24</v>
@@ -2580,7 +2598,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
@@ -2601,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
@@ -2616,7 +2634,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>13</v>
@@ -2652,7 +2670,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
@@ -2673,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>24</v>
@@ -2688,7 +2706,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>13</v>
@@ -2709,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>24</v>
@@ -2724,7 +2742,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
@@ -2745,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
@@ -2760,7 +2778,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -2781,7 +2799,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
@@ -2796,7 +2814,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -2817,7 +2835,7 @@
         <v>14</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>24</v>
@@ -2832,7 +2850,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -2853,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>24</v>
@@ -2868,7 +2886,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -2889,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>24</v>
@@ -2904,7 +2922,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -2925,7 +2943,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>24</v>
@@ -2940,39 +2958,255 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="2">
+        <v>500</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="2">
+        <v>500</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="2">
+        <v>500</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="2">
+        <v>500</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="2">
+        <v>500</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="2">
+        <v>500</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="2">
-        <v>500</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L63" s="2" t="s">
+      <c r="I69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="2">
+        <v>500</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Oscilo_list.xlsx
+++ b/Oscilo_list.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1534694\Documents\GitHub\oscilografia_TW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1534694\Documents\Eletrosul\42_SEMINÁRIOS\STPC\XVI STPC 2022\Artigo CIGRE B5_55 - Repositório de Oscilos TW\Artigo - Elaboração\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94ED7F-ADE9-4788-A299-37826F649B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B557A-322E-4B5C-AEE5-2346480241E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E59DAF9-8DBB-408C-A814-55F38A18EDAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4E59DAF9-8DBB-408C-A814-55F38A18EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$L$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="86">
   <si>
     <t>Nome Oscilo</t>
   </si>
@@ -115,33 +115,9 @@
     <t>CA</t>
   </si>
   <si>
-    <t>2015_11_14_16h42min29s_LT_525kV</t>
-  </si>
-  <si>
     <t>Externa</t>
   </si>
   <si>
-    <t>2016_05_20_22h32min10s_LT_525kV</t>
-  </si>
-  <si>
-    <t>2018_12_02_14h29min49s_LT_525kV</t>
-  </si>
-  <si>
-    <t>2019_10_06_07h52min01s_LT_525kV</t>
-  </si>
-  <si>
-    <t>Oscilo CA Terminal SE_B somente do fechament do DJ</t>
-  </si>
-  <si>
-    <t>2014_04_19_08h53min09s_LT_525kV</t>
-  </si>
-  <si>
-    <t>2016_09_26_02h10min43s_LT_525kV</t>
-  </si>
-  <si>
-    <t>2017_09_19_00h36min58s_LT_525kV</t>
-  </si>
-  <si>
     <t>2020_06_22_03h31min43s_LT_230kV</t>
   </si>
   <si>
@@ -187,99 +163,30 @@
     <t>2021_12_16_16h40min27s_LT_230kV</t>
   </si>
   <si>
-    <t>Case01-AG_internal fault near Xingu - 16,6% - 0</t>
-  </si>
-  <si>
     <t>Simulada</t>
   </si>
   <si>
-    <t>Case01-AG_internal fault near Xingu - 16,6% 90</t>
-  </si>
-  <si>
     <t>Case02-AG_internal fault middle of the line - 50% - 0</t>
   </si>
   <si>
     <t>Case02-AG_internal fault middle of the line - 50% - 90</t>
   </si>
   <si>
-    <t>Case03-AG_internal fault near Tucuruí - 83,4% - 0</t>
-  </si>
-  <si>
-    <t>Case03-AG_internal fault near Tucuruí - 83,4% - 90</t>
-  </si>
-  <si>
-    <t>Case04-AG_parallel line near Xingu - 16,6% - 90</t>
-  </si>
-  <si>
     <t>Case05-AG_parallel line in the midlle of the line - 50% - 90</t>
   </si>
   <si>
-    <t>Case06-AG_parallel line near Tucuruí - 83,4% - 90</t>
-  </si>
-  <si>
-    <t>Case07-AG_Xingu bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case08-AG_Tucuruí bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case09-AG_Belo Monte bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case10-AG_Marabá bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case11-AG_Jurupari bus fault - 90</t>
-  </si>
-  <si>
     <t>Case12-AG_evolving fault from parallel line to internal fault - 50% - 90</t>
   </si>
   <si>
     <t>Externa para Interna</t>
   </si>
   <si>
-    <t>Case13-ABC_internal fault near  Xingu - 16,6% - 90</t>
-  </si>
-  <si>
     <t>Case14-ABC_internal fault middle of the line - 50% - 90</t>
   </si>
   <si>
-    <t>Case15-ABC_internal fault near Tucuruí - 83,4% - 90</t>
-  </si>
-  <si>
     <t>Case17-ABC_parallel line in the middle of the line - 50% - 90</t>
   </si>
   <si>
-    <t>Case18-ABC_parallel line near Tucuruí - 83,4% - 90</t>
-  </si>
-  <si>
-    <t>Case19-ABC_Xingu bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case20-ABC_Tucuruí bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case21-ABC_Belo Monte bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case22-ABC_Marabá bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case23-ABC_Jurupari bus fault - 90</t>
-  </si>
-  <si>
-    <t>Case24-AG_internal fault near Tucuruí - 83,4%_Resistance - 90 - 25ohms</t>
-  </si>
-  <si>
-    <t>Case24-AG_internal fault near Tucuruí - 83,4%_Resistance - 90 - 75ohms</t>
-  </si>
-  <si>
-    <t>Case24-AG_internal fault near Tucuruí - 83,4%_Resistance - 90 - 150ohms</t>
-  </si>
-  <si>
-    <t>Case24-AG_internal fault near Tucuruí - 83,4%_Resistance - 90 - 200ohms</t>
-  </si>
-  <si>
     <t>Case25-Series Cap bypass - 90 - Inserting Capacitor</t>
   </si>
   <si>
@@ -292,9 +199,6 @@
     <t>Sem falta</t>
   </si>
   <si>
-    <t>Case27-Playback - Belo Monte bus fault</t>
-  </si>
-  <si>
     <t>Case28-Playback - HVDC Commutation Failure</t>
   </si>
   <si>
@@ -320,6 +224,78 @@
   </si>
   <si>
     <t>2020_09_29 LT500KV A-B</t>
+  </si>
+  <si>
+    <t>Case01-AG_internal fault near SE_B - 16,6% - 0</t>
+  </si>
+  <si>
+    <t>Case01-AG_internal fault near SE_B - 16,6% 90</t>
+  </si>
+  <si>
+    <t>Case04-AG_parallel line near SE_B - 16,6% - 90</t>
+  </si>
+  <si>
+    <t>Case07-AG_SE_B bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case13-ABC_internal fault near  SE_B - 16,6% - 90</t>
+  </si>
+  <si>
+    <t>Case19-ABC_SE_B bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case03-AG_internal fault near SE_A - 83,4% - 0</t>
+  </si>
+  <si>
+    <t>Case03-AG_internal fault near SE_A - 83,4% - 90</t>
+  </si>
+  <si>
+    <t>Case06-AG_parallel line near SE_A - 83,4% - 90</t>
+  </si>
+  <si>
+    <t>Case08-AG_SE_A bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case15-ABC_internal fault near SE_A - 83,4% - 90</t>
+  </si>
+  <si>
+    <t>Case18-ABC_parallel line near SE_A - 83,4% - 90</t>
+  </si>
+  <si>
+    <t>Case20-ABC_SE_A bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case24-AG_internal fault near SE_A - 83,4%_Resistance - 90 - 25ohms</t>
+  </si>
+  <si>
+    <t>Case24-AG_internal fault near SE_A - 83,4%_Resistance - 90 - 75ohms</t>
+  </si>
+  <si>
+    <t>Case24-AG_internal fault near SE_A - 83,4%_Resistance - 90 - 150ohms</t>
+  </si>
+  <si>
+    <t>Case24-AG_internal fault near SE_A - 83,4%_Resistance - 90 - 200ohms</t>
+  </si>
+  <si>
+    <t>Case09-AG_SE_C bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case21-ABC_SE_C bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case27-Playback - SE_C bus fault</t>
+  </si>
+  <si>
+    <t>Case10-AG_SE_D bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case22-ABC_SE_D bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case11-AG_SE_E bus fault - 90</t>
+  </si>
+  <si>
+    <t>Case23-ABC_SE_E bus fault - 90</t>
   </si>
 </sst>
 </file>
@@ -708,29 +684,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C89CCF-5410-44FB-A089-79848F9D5500}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,117 +745,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2">
-        <v>525</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2">
-        <v>525</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2">
-        <v>525</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -912,45 +823,23 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="2">
-        <v>525</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -984,7 +873,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +907,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +941,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +975,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1009,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1154,81 +1043,37 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="2">
-        <v>525</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="2">
-        <v>525</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1262,9 +1107,9 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -1298,9 +1143,9 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -1334,9 +1179,9 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -1370,47 +1215,23 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2" t="s">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="2">
-        <v>525</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1444,7 +1265,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1480,9 +1301,9 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1516,9 +1337,9 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1552,9 +1373,9 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
@@ -1588,9 +1409,9 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
@@ -1624,9 +1445,9 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1660,9 +1481,9 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
@@ -1696,9 +1517,9 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1732,9 +1553,9 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
@@ -1768,9 +1589,9 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
@@ -1804,9 +1625,9 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
@@ -1840,9 +1661,9 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
@@ -1876,9 +1697,9 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1912,9 +1733,9 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1948,9 +1769,9 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
@@ -1984,9 +1805,9 @@
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
@@ -2016,13 +1837,13 @@
         <v>500</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -2052,13 +1873,13 @@
         <v>500</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -2088,13 +1909,13 @@
         <v>500</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -2124,13 +1945,13 @@
         <v>500</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -2160,13 +1981,13 @@
         <v>500</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -2196,13 +2017,13 @@
         <v>500</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
@@ -2223,7 +2044,7 @@
         <v>14</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>24</v>
@@ -2232,13 +2053,13 @@
         <v>500</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -2259,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>24</v>
@@ -2268,13 +2089,13 @@
         <v>500</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -2295,7 +2116,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>24</v>
@@ -2304,13 +2125,13 @@
         <v>500</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -2331,7 +2152,7 @@
         <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>24</v>
@@ -2340,13 +2161,13 @@
         <v>500</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -2367,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>24</v>
@@ -2376,13 +2197,13 @@
         <v>500</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -2403,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>24</v>
@@ -2412,13 +2233,13 @@
         <v>500</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -2439,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>24</v>
@@ -2448,13 +2269,13 @@
         <v>500</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
@@ -2475,7 +2296,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>24</v>
@@ -2484,13 +2305,13 @@
         <v>500</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
@@ -2511,7 +2332,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>24</v>
@@ -2520,11 +2341,11 @@
         <v>500</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2556,590 +2377,590 @@
         <v>500</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="2">
+        <v>500</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="2">
+        <v>500</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="2">
+        <v>500</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="2">
+        <v>500</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="2">
+        <v>500</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="2">
+        <v>500</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="2">
+        <v>500</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="2">
+        <v>500</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="2">
+        <v>500</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="2">
+        <v>500</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="2">
+        <v>500</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="2">
+        <v>500</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="2">
+        <v>500</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="2">
+        <v>500</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="2">
-        <v>500</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="2">
-        <v>500</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="2">
-        <v>500</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="2">
-        <v>500</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="2">
-        <v>500</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="2">
-        <v>500</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="2">
-        <v>500</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="2">
-        <v>500</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="2">
-        <v>500</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" s="2">
-        <v>500</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" s="2">
-        <v>500</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="2">
-        <v>500</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="2">
-        <v>500</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="2">
-        <v>500</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="2">
+        <v>500</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="2">
+        <v>500</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="2">
-        <v>500</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="2">
-        <v>500</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="B68" s="2" t="s">
         <v>13</v>
       </c>
@@ -3159,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>24</v>
@@ -3168,13 +2989,13 @@
         <v>500</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>14</v>
@@ -3195,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>24</v>
@@ -3204,14 +3025,20 @@
         <v>500</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{31C89CCF-5410-44FB-A089-79848F9D5500}"/>
+  <autoFilter ref="A1:L69" xr:uid="{31C89CCF-5410-44FB-A089-79848F9D5500}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Interna"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Oscilo_list.xlsx
+++ b/Oscilo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1534694\Documents\Eletrosul\42_SEMINÁRIOS\STPC\XVI STPC 2022\Artigo CIGRE B5_55 - Repositório de Oscilos TW\Artigo - Elaboração\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B557A-322E-4B5C-AEE5-2346480241E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A51CA5-B76F-4A4E-928A-A78FC9E00575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4E59DAF9-8DBB-408C-A814-55F38A18EDAE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$L$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$L$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="88">
   <si>
     <t>Nome Oscilo</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Case23-ABC_SE_E bus fault - 90</t>
+  </si>
+  <si>
+    <t>2020_07_14_15h05_LT_e_CABO_220kV</t>
+  </si>
+  <si>
+    <t>Linha Mista (Aérea e Cabo)</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -342,32 +348,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,11 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C89CCF-5410-44FB-A089-79848F9D5500}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,51 +734,115 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>500</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2">
+        <v>500</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -813,39 +866,57 @@
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2">
-        <v>500</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -854,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -863,11 +934,9 @@
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2">
-        <v>500</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
@@ -875,7 +944,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -909,13 +978,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -924,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
@@ -933,9 +1002,11 @@
         <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <v>500</v>
+      </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
@@ -943,13 +1014,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -958,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -967,9 +1038,11 @@
         <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J10" s="2">
+        <v>500</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
@@ -977,13 +1050,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -992,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -1001,23 +1074,25 @@
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J11" s="2">
+        <v>500</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -1026,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>13</v>
@@ -1035,72 +1110,120 @@
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J12" s="2">
+        <v>500</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>230</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2">
+        <v>220</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>17</v>
@@ -1109,7 +1232,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -1136,7 +1259,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="2">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>17</v>
@@ -1145,7 +1268,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -1172,16 +1295,16 @@
         <v>24</v>
       </c>
       <c r="J17" s="2">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -1208,30 +1331,52 @@
         <v>24</v>
       </c>
       <c r="J18" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2">
+        <v>230</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1258,43 +1403,43 @@
         <v>24</v>
       </c>
       <c r="J20" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>17</v>
@@ -1303,7 +1448,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1330,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="J22" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>17</v>
@@ -1339,7 +1484,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1366,7 +1511,7 @@
         <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>17</v>
@@ -1375,7 +1520,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
@@ -1390,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
@@ -1402,7 +1547,7 @@
         <v>24</v>
       </c>
       <c r="J24" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>17</v>
@@ -1411,7 +1556,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
@@ -1447,7 +1592,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1474,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>17</v>
@@ -1483,7 +1628,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
@@ -1510,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>17</v>
@@ -1519,7 +1664,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1555,7 +1700,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
@@ -1582,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="J29" s="2">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>17</v>
@@ -1591,7 +1736,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
@@ -1600,16 +1745,16 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
@@ -1618,16 +1763,16 @@
         <v>24</v>
       </c>
       <c r="J30" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
@@ -1636,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
@@ -1645,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
@@ -1654,16 +1799,16 @@
         <v>24</v>
       </c>
       <c r="J31" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
@@ -1672,7 +1817,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
@@ -1681,7 +1826,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
@@ -1690,16 +1835,16 @@
         <v>24</v>
       </c>
       <c r="J32" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1708,7 +1853,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
@@ -1717,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -1726,16 +1871,16 @@
         <v>24</v>
       </c>
       <c r="J33" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1744,7 +1889,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -1753,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
@@ -1762,16 +1907,16 @@
         <v>24</v>
       </c>
       <c r="J34" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
@@ -1780,7 +1925,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -1789,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
@@ -1798,16 +1943,16 @@
         <v>24</v>
       </c>
       <c r="J35" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
@@ -1828,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>24</v>
@@ -1843,7 +1988,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -1864,7 +2009,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>24</v>
@@ -1879,7 +2024,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -1900,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>24</v>
@@ -1915,7 +2060,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -1936,7 +2081,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>24</v>
@@ -1951,7 +2096,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1972,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>24</v>
@@ -1987,7 +2132,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -2008,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>24</v>
@@ -2021,9 +2166,9 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
@@ -2057,9 +2202,9 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -2093,9 +2238,9 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -2116,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>24</v>
@@ -2129,9 +2274,9 @@
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -2152,7 +2297,7 @@
         <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>24</v>
@@ -2165,9 +2310,9 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -2188,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>24</v>
@@ -2201,9 +2346,9 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -2224,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>24</v>
@@ -2237,9 +2382,9 @@
       </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -2273,9 +2418,9 @@
       </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
@@ -2309,9 +2454,9 @@
       </c>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
@@ -2332,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>24</v>
@@ -2347,7 +2492,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>13</v>
@@ -2368,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
@@ -2383,7 +2528,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -2404,7 +2549,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>24</v>
@@ -2419,7 +2564,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
@@ -2440,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
@@ -2453,9 +2598,9 @@
       </c>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>13</v>
@@ -2489,9 +2634,9 @@
       </c>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
@@ -2512,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>24</v>
@@ -2525,9 +2670,9 @@
       </c>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>13</v>
@@ -2548,7 +2693,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>24</v>
@@ -2561,9 +2706,9 @@
       </c>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
@@ -2584,7 +2729,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
@@ -2597,9 +2742,9 @@
       </c>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -2620,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
@@ -2633,9 +2778,9 @@
       </c>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -2656,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>24</v>
@@ -2669,9 +2814,9 @@
       </c>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -2692,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>24</v>
@@ -2707,7 +2852,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -2728,7 +2873,7 @@
         <v>14</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>24</v>
@@ -2743,7 +2888,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -2764,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>24</v>
@@ -2779,10 +2924,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
@@ -2791,7 +2936,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>13</v>
@@ -2800,7 +2945,7 @@
         <v>14</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>24</v>
@@ -2811,234 +2956,12 @@
       <c r="K63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="2">
-        <v>500</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="2">
-        <v>500</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="2">
-        <v>500</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="2">
-        <v>500</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="2">
-        <v>500</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="2">
-        <v>500</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L69" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L69" xr:uid="{31C89CCF-5410-44FB-A089-79848F9D5500}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Interna"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L63" xr:uid="{31C89CCF-5410-44FB-A089-79848F9D5500}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>